--- a/vital_findings_demo.xlsx
+++ b/vital_findings_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rwhdinc-my.sharepoint.com/personal/bruno_diezbuitrago_trinetx_com/Documents/Usagi shared/catalogues/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{D3C35AC9-B5DB-4CA0-A076-E695404512E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8909A72C-F0CA-4BB0-9C06-8E2E6F5D7966}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{D3C35AC9-B5DB-4CA0-A076-E695404512E0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{137B26D3-639B-4CD5-A403-84E081046CA8}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{38B50747-E5E5-4758-B80E-08AAEAE43626}"/>
+    <workbookView xWindow="29820" yWindow="5370" windowWidth="19200" windowHeight="6930" xr2:uid="{38B50747-E5E5-4758-B80E-08AAEAE43626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,24 +42,12 @@
     <t>2863</t>
   </si>
   <si>
-    <t>100105</t>
-  </si>
-  <si>
-    <t>kg/m2</t>
-  </si>
-  <si>
     <t>100403</t>
   </si>
   <si>
     <t>lat/min</t>
   </si>
   <si>
-    <t>301760</t>
-  </si>
-  <si>
-    <t>l/min</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -84,19 +72,31 @@
     <t>Diastolic pressure</t>
   </si>
   <si>
-    <t>BMI</t>
-  </si>
-  <si>
     <t>Heart rate</t>
   </si>
   <si>
-    <t>Oxygen flow</t>
-  </si>
-  <si>
     <t>Body temperature</t>
   </si>
   <si>
     <t>Capillary blood oxygen saturation</t>
+  </si>
+  <si>
+    <t>100103</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>120748</t>
+  </si>
+  <si>
+    <t>Breathing frequency</t>
+  </si>
+  <si>
+    <t>resp/min</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,13 +464,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -489,7 +489,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -497,46 +497,46 @@
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
         <v>20</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
